--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2905.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2905.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.215092708085179</v>
+        <v>1.455198407173157</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.777684688568115</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.447533369064331</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.40050220489502</v>
       </c>
       <c r="E1">
-        <v>1.179208176430142</v>
+        <v>2.47014594078064</v>
       </c>
     </row>
   </sheetData>
